--- a/public/questions.xlsx
+++ b/public/questions.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23017"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32F457A7-0B4B-4866-9799-401E1C4ED21F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{561EF68C-B288-43A8-AE37-3A1314D95C94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Wildlife" sheetId="1" r:id="rId1"/>
@@ -1479,7 +1479,7 @@
     <t>World War I pilots </t>
   </si>
   <si>
-    <t>What “two wars” did the Tuskegee Airmen fight?</t>
+    <t>What two wars did the Tuskegee Airmen fight?</t>
   </si>
   <si>
     <t>Fascism abroad and racial discrimination at home</t>
@@ -1803,10 +1803,10 @@
     <t>In college</t>
   </si>
   <si>
-    <t xml:space="preserve">After releasing his autobiography, why was Fredrick Douglas in danger of being returned to slavery? </t>
-  </si>
-  <si>
-    <t>He included his name, his owner’s names, and his birthplace</t>
+    <t xml:space="preserve">After releasing his autobiography, why was Fredrick Douglas in danger of being forced back into slavery? </t>
+  </si>
+  <si>
+    <t>He included his name, his enslavers' names, and his birthplace</t>
   </si>
   <si>
     <t>He hosted a book signing where he was nearly captured</t>
@@ -4368,7 +4368,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4378,6 +4378,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE7E6E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4394,7 +4406,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4423,6 +4435,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4748,7 +4766,7 @@
   <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4764,11 +4782,11 @@
     <row r="1" spans="1:10" s="2" customFormat="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -5851,7 +5869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C52D8D4E-CD5D-4A3D-B864-91B39F5072E7}">
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -5868,11 +5886,11 @@
     <row r="1" spans="1:10" s="2" customFormat="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -7116,7 +7134,7 @@
   <dimension ref="A1:J62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7132,11 +7150,11 @@
     <row r="1" spans="1:10" s="2" customFormat="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="15" t="s">
         <v>472</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -7737,7 +7755,7 @@
       <c r="C31" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="13" t="s">
         <v>587</v>
       </c>
       <c r="E31" s="6" t="s">
@@ -7754,13 +7772,13 @@
       <c r="B32" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="12" t="s">
         <v>590</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="12" t="s">
         <v>591</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="13" t="s">
         <v>592</v>
       </c>
       <c r="F32" s="6" t="s">
@@ -8379,8 +8397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D50099A-A890-4ADE-8CDF-B0B1A30C0A3B}">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8396,11 +8414,11 @@
     <row r="1" spans="1:10" s="2" customFormat="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="15" t="s">
         <v>714</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -9483,7 +9501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA51FE9-4CFF-4713-ADCA-A98CBFB55A4D}">
   <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+    <sheetView topLeftCell="A82" workbookViewId="0">
       <selection activeCell="F105" sqref="F105"/>
     </sheetView>
   </sheetViews>
@@ -9500,11 +9518,11 @@
     <row r="1" spans="1:10" s="2" customFormat="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="15" t="s">
         <v>923</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -11564,11 +11582,11 @@
     <row r="1" spans="1:10" s="2" customFormat="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="15" t="s">
         <v>1342</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>

--- a/public/questions.xlsx
+++ b/public/questions.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23313"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71A3E2D6-7B90-4B16-811D-5B58B9EF6D45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B308F4F6-C941-46C6-B1BA-7F7E93789DB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,6 +23,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -68,10 +69,10 @@
     <t xml:space="preserve">That’s true! Common loons’ feet are farther back on the body causing an awkward imbalance when walking. </t>
   </si>
   <si>
-    <t xml:space="preserve">Love Island is located 12 mi. off the coast of Rhode Island and is popular for migratory birds. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">That’s false! Love Island is a British dating reality series, Brock Island is the correct name. </t>
+    <t xml:space="preserve">Friend Island is located 12 mi. off the coast of Rhode Island and is popular for migratory birds. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">That’s false! Friend Island doesn't exist. Brock Island is the correct name. </t>
   </si>
   <si>
     <t>The Samoan fruit bat can only be found in the U.S. at the National Park of American Samoa.</t>
@@ -206,7 +207,7 @@
     <t xml:space="preserve">Gym, tan, and laundry are the three fundamentals of survival common to all homesteaders. </t>
   </si>
   <si>
-    <t xml:space="preserve">That’s false! That’s a motto from the reality television show The Jersey Shore. Food, water, and shelter is the correct answer. </t>
+    <t xml:space="preserve">That’s false! That’s a motto from a popular reality TV show. Food, water, and shelter is the correct answer. </t>
   </si>
   <si>
     <t xml:space="preserve">Arches National Park's Frame Arch has been damaged from carved graffiti. </t>
@@ -242,7 +243,7 @@
     <t xml:space="preserve">Many native peoples call Mount Hood Wy’East. </t>
   </si>
   <si>
-    <t xml:space="preserve">That’s true! The Molalas, Kalapuyans, Chinookan Clackamas, Shinookan Wascos, Northern Paiute peoples, and Sahaptin speakers all lived within the area and many of them called the mountain Wy’East. </t>
+    <t xml:space="preserve">That’s true! Many Molalas, Kalapuyans, Chinookan Clackamas, Shinookan Wascos, Northern Paiute peoples, and Sahaptin speakers called the mountain Wy’East. </t>
   </si>
   <si>
     <t xml:space="preserve">The Tippity Top, a Yosemite icon, is the largest monolith of granite in the world. </t>
@@ -329,7 +330,7 @@
     <t xml:space="preserve">Ellis Island was also called the  Island of Hope and Island of Tears. </t>
   </si>
   <si>
-    <t xml:space="preserve">That’s true. For many, Ellis Island was the first stop to their U.S. life. It was also a place where families were separated, and individuals were denied entry into this country. </t>
+    <t xml:space="preserve">That’s true. For many, Ellis Island was the first stop to their U.S. life. It was also a place where families were separated and denied entry into this country. </t>
   </si>
   <si>
     <t xml:space="preserve">The U.S. capture of Fort Surprise was considered one of the greatest feats of the American Revolution. </t>
@@ -419,10 +420,10 @@
     <t xml:space="preserve">That’s false! These painters often painted landscapes and scenes of high society. </t>
   </si>
   <si>
-    <t xml:space="preserve">Du Jour was the name of the artist group that Julian Weir and his friends formed in the late 1890s. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">That’s false! Du Jour is the name of a fictious band from the movie Josie and the Pussycats. Weir’s group was called the Ten American Painters. </t>
+    <t xml:space="preserve">Art Pants was the name of the artist group that Julian Weir and his friends formed in the late 1890s. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">That’s false! Weir’s group was actually called the Ten American Painters. </t>
   </si>
   <si>
     <t xml:space="preserve">John Gutzon de la Mothe Borglum, the main sculptor of Mount Rushmore, once fashioned a colossal head of a U.S. president out of marble. </t>
@@ -476,7 +477,7 @@
     <t xml:space="preserve">During the Great Depression, the Civilian Conservation Corps planted nearly 3 billion trees and developed more than 800 parks. </t>
   </si>
   <si>
-    <t xml:space="preserve">That’s true! The Civilian Conservation Corps was part of President Franklin D. Roosevelt’s New Deal, and much of the work accomplished was in national, state, and local parks. </t>
+    <t xml:space="preserve">That’s true! The Civilian Conservation Corps was part of FDR's New Deal, and much of the work accomplished was in national, state, and local parks. </t>
   </si>
   <si>
     <t xml:space="preserve">Shenandoah National Park has over 500 miles of trails for hikers choose from. </t>
@@ -4992,7 +4993,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5017,6 +5018,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -5030,7 +5037,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5088,6 +5095,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5411,15 +5421,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F2975F-03BC-42AB-9664-B05764EFBFCB}">
   <dimension ref="A1:C105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="87.42578125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="75.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="125.85546875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="22" customFormat="1">
@@ -5477,14 +5487,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="24" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5723,14 +5733,14 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="30">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>44</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="24" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5789,14 +5799,14 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="45">
+    <row r="35" spans="1:3" ht="30">
       <c r="A35" t="s">
         <v>44</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="24" t="s">
         <v>70</v>
       </c>
     </row>
@@ -5947,14 +5957,14 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="45">
+    <row r="50" spans="1:3" ht="30">
       <c r="A50" t="s">
         <v>85</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="24" t="s">
         <v>99</v>
       </c>
     </row>
@@ -6120,10 +6130,10 @@
       <c r="A66" t="s">
         <v>126</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C66" s="24" t="s">
         <v>130</v>
       </c>
     </row>
@@ -6215,14 +6225,14 @@
         <v>146</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="45">
+    <row r="75" spans="1:3" ht="30">
       <c r="A75" t="s">
         <v>126</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="C75" s="24" t="s">
         <v>148</v>
       </c>
     </row>
@@ -6575,11 +6585,11 @@
     <row r="1" spans="1:10" s="2" customFormat="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -7679,11 +7689,11 @@
     <row r="1" spans="1:10" s="2" customFormat="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>435</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -8943,11 +8953,11 @@
     <row r="1" spans="1:10" s="2" customFormat="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>681</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -10207,11 +10217,11 @@
     <row r="1" spans="1:10" s="2" customFormat="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>923</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -11311,11 +11321,11 @@
     <row r="1" spans="1:10" s="2" customFormat="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>1132</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -13835,6 +13845,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008744C7117CBC664990BE62B8F6C78528" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dff06c3127324ffde24fdab310a8361c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="29b87797-9c39-48e5-9fdc-eb6896ec2dd2" xmlns:ns3="aa264b06-7ba4-4e7e-b955-1398e7efdf3f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3cada06744ccb0a12c384ab25f6b9ee6" ns2:_="" ns3:_="">
     <xsd:import namespace="29b87797-9c39-48e5-9fdc-eb6896ec2dd2"/>
@@ -14019,12 +14035,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -14035,11 +14045,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17E8463D-5FEE-4695-A81A-E0FBA0867AB2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16243D8F-1250-4E8A-BCA3-98E9D04055EC}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16243D8F-1250-4E8A-BCA3-98E9D04055EC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17E8463D-5FEE-4695-A81A-E0FBA0867AB2}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
